--- a/Demo_files/schedule_fras_31.xlsx
+++ b/Demo_files/schedule_fras_31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TechNo(D)\Projects\Face Recognition\FRAS\Demo_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE7ED9-8D27-4226-8688-4C597B149F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F3AA8-DDEF-4A75-87CF-283124CB7044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>DEPARTMENT OF COMPUTER SCIENCE AND ENGINEERING</t>
   </si>
@@ -98,28 +98,7 @@
     <t>CS355</t>
   </si>
   <si>
-    <t>CS351(A)CS353(B)</t>
-  </si>
-  <si>
-    <t>CS351(B)CS353(A)</t>
-  </si>
-  <si>
-    <t>CS355(A)CS353(B)</t>
-  </si>
-  <si>
-    <t>CS351(A)CS352(B)</t>
-  </si>
-  <si>
-    <t>CS351(B)CS352(A)</t>
-  </si>
-  <si>
-    <t>CS352(A)CS355(B)</t>
-  </si>
-  <si>
     <t>CS353</t>
-  </si>
-  <si>
-    <t>CS352(B)CS353(A)</t>
   </si>
 </sst>
 </file>
@@ -561,10 +540,13 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
@@ -659,14 +641,14 @@
         <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="5"/>
@@ -687,7 +669,7 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="5"/>
@@ -708,7 +690,7 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="5"/>
@@ -725,11 +707,11 @@
         <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="5"/>
@@ -748,7 +730,7 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="5"/>
@@ -759,7 +741,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="5" t="s">
